--- a/docs/parser_way24.xlsx
+++ b/docs/parser_way24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="склад" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Южный</t>
   </si>
   <si>
-    <t>Херсон , вулиця Маріі Фортус</t>
-  </si>
-  <si>
     <t>https://goo.gl/maps/u6D9Ru3APLC2</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Секция 9</t>
   </si>
   <si>
-    <t>Тариф</t>
-  </si>
-  <si>
     <t>ул. 1-я Ингульская, 1, Николаев, Николаевская область, 54000</t>
   </si>
   <si>
@@ -373,6 +367,12 @@
   </si>
   <si>
     <t>Найти и заполнить недостающие данные, которые как пример , приведены для предприятия Нибулон вверху таблицы. Занести результат в базу данных SQL</t>
+  </si>
+  <si>
+    <t>Тариф(UAH)</t>
+  </si>
+  <si>
+    <t>Херсон, вулиця Маріі Фортус</t>
   </si>
 </sst>
 </file>
@@ -380,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$UAH]"/>
-    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₴&quot;_-;\-* #,##0.00\ &quot;₴&quot;_-;_-* &quot;-&quot;??\ &quot;₴&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,6 +474,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -701,11 +709,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -766,7 +775,7 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -786,7 +795,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -820,6 +828,8 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,8 +861,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Грошовий" xfId="2" builtinId="4"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
@@ -1828,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1847,7 +1858,7 @@
       <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="32" t="s">
@@ -1862,10 +1873,10 @@
       <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1877,10 +1888,10 @@
       <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1892,10 +1903,10 @@
       <c r="B4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1905,13 +1916,13 @@
         <v>Южный</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>65</v>
+      <c r="D5" s="45" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1920,13 +1931,13 @@
         <v>Херсон</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1935,13 +1946,13 @@
         <v>Палеты</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>16</v>
+      <c r="D7" s="45" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1961,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1975,73 +1986,73 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="30" t="s">
-        <v>31</v>
-      </c>
       <c r="P1" s="30" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="30">
         <f>SUM(G2:O2)</f>
         <v>35320</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2" s="30">
         <v>7150</v>
@@ -2068,29 +2079,29 @@
       <c r="O2" s="30">
         <v>4130</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="49">
         <v>22.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="30">
         <f t="shared" ref="C3:C4" si="0">SUM(G3:O3)</f>
         <v>29235</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="30">
         <v>7150</v>
@@ -2115,29 +2126,29 @@
       <c r="O3" s="30">
         <v>4130</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="50">
         <v>21.4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="30">
         <f t="shared" si="0"/>
         <v>30235</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="30">
         <v>7150</v>
@@ -2160,29 +2171,29 @@
       <c r="O4" s="30">
         <v>4130</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="50">
         <v>21.2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="30">
         <f t="shared" ref="C5:C6" si="1">SUM(G5:O5)</f>
         <v>19275</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="30">
         <v>7150</v>
@@ -2201,29 +2212,29 @@
       <c r="O5" s="30">
         <v>4130</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="50">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="30">
         <f t="shared" si="1"/>
         <v>24110</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="30">
         <v>7150</v>
@@ -2242,13 +2253,14 @@
         <v>4990</v>
       </c>
       <c r="O6" s="30"/>
-      <c r="P6" s="36">
+      <c r="P6" s="50">
         <v>19.600000000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2271,44 +2283,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="33">
         <v>16</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="33">
         <v>15.9</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2316,13 +2328,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="33">
         <v>15.8</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2330,13 +2342,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="33">
         <v>19.8</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2344,13 +2356,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="33">
         <v>15.75</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2358,41 +2370,41 @@
         <v>14</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="33">
         <v>15.8</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="33">
         <v>16.2</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="33">
         <v>16.25</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,13 +2412,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="33">
         <v>15.8</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2418,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2436,211 +2448,211 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="39">
+        <v>14291113</v>
+      </c>
+      <c r="C2" s="39">
+        <v>56156</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" s="40">
+        <v>36194488</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="40">
-        <v>14291113</v>
-      </c>
-      <c r="C2" s="40">
-        <v>56156</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="E3" s="40">
+        <v>25000</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="41">
-        <v>36194488</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="41">
-        <v>25000</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>51</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="41">
+      <c r="A4" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="40">
         <v>25000</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="40">
+        <v>36201594</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="40">
+        <v>6000</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="41">
-        <v>36201594</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="41">
-        <v>6000</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>56</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="40">
+        <v>36328534</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="40">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="41">
-        <v>36328534</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>59</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="40">
+        <v>36340242</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="40">
+        <v>11000</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="41">
-        <v>36340242</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="41">
-        <v>11000</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>62</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41">
+      <c r="A8" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40">
         <v>68551</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="D8" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="40">
         <v>35000</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>97</v>
+      <c r="F8" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="41">
+      <c r="A9" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="40">
         <v>36346176</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="C9" s="40"/>
+      <c r="D9" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="40">
         <v>9000</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>99</v>
+      <c r="F9" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="A11" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2660,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E17" sqref="E17:N28"/>
     </sheetView>
   </sheetViews>
@@ -2677,52 +2689,52 @@
   <sheetData>
     <row r="1" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="H1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="J1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="N1" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f ca="1">TODAY()</f>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="B2" s="17">
         <f>Перевозчик!C2</f>
@@ -2741,11 +2753,11 @@
         <v>0</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
@@ -2762,297 +2774,297 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="38">
+        <v>21</v>
+      </c>
+      <c r="B3" s="37">
         <v>7150</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="19">
         <f ca="1">TODAY()</f>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H3" s="20">
         <v>1</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="49">
+      <c r="J3" s="48">
         <v>23110</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="38">
+        <v>22</v>
+      </c>
+      <c r="B4" s="37">
         <v>2985</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" ref="G4:G11" ca="1" si="1">TODAY()</f>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H4" s="20">
         <v>2</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <v>14135</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="38">
+        <v>23</v>
+      </c>
+      <c r="B5" s="37">
         <v>5970</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H5" s="20">
         <v>3</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <v>5970</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="38">
+        <v>24</v>
+      </c>
+      <c r="B6" s="37">
         <v>2015</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H6" s="20">
         <v>4</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="49">
+      <c r="J6" s="48">
         <v>10130</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="38">
+        <v>26</v>
+      </c>
+      <c r="B7" s="37">
         <v>1995</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H7" s="20">
         <v>5</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="49">
+      <c r="J7" s="48">
         <v>10100</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="38">
+        <v>27</v>
+      </c>
+      <c r="B8" s="37">
         <v>6000</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H8" s="20">
         <v>6</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="49">
+      <c r="J8" s="48">
         <v>8955</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="38">
+        <v>28</v>
+      </c>
+      <c r="B9" s="37">
         <v>3070</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H9" s="20">
         <v>7</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <v>6125</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="38">
+        <v>29</v>
+      </c>
+      <c r="B10" s="37">
         <v>4990</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H10" s="20">
         <v>8</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="49">
+      <c r="J10" s="48">
         <v>26280</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="38">
+        <v>30</v>
+      </c>
+      <c r="B11" s="37">
         <v>4130</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="H11" s="20">
         <v>9</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="49">
+      <c r="J11" s="48">
         <v>9040</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="23"/>
@@ -3068,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6" t="str">
         <f>транспорт[[#Headers],[Кл.ПП]]</f>
@@ -3107,43 +3119,43 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="48">
+        <v>85</v>
+      </c>
+      <c r="C13" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13">
@@ -3151,36 +3163,36 @@
         <v>0</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="21">
         <f>SUM([1]Логистика!AF1:AF11)</f>
@@ -3199,175 +3211,175 @@
         <v>0</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
+      <c r="E17" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
     </row>
     <row r="19" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="56"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="57"/>
     </row>
     <row r="20" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
     </row>
     <row r="22" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="57"/>
     </row>
     <row r="23" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
     </row>
     <row r="24" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="56"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
     </row>
     <row r="25" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="57"/>
     </row>
     <row r="26" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="56"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
     </row>
     <row r="27" spans="5:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
     </row>
     <row r="28" spans="5:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
